--- a/artfynd/A 56010-2025 artfynd.xlsx
+++ b/artfynd/A 56010-2025 artfynd.xlsx
@@ -1497,7 +1497,7 @@
         <v>130112232</v>
       </c>
       <c r="B9" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>130324271</v>
       </c>
       <c r="B10" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
